--- a/templates/templates.xlsx
+++ b/templates/templates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive - emblebi\EBI\work\ena-CLI\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emblebi-my.sharepoint.com/personal/khadim_ebi_ac_uk/Documents/EBI/work/ena-CLI/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279261C-C0F0-4668-92B8-AE079F30CF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{3F1B348C-49A9-4678-A2D2-EB86CBFFE36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE118C1-2E32-4EFB-891C-4C58B837E43D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="202">
   <si>
     <t>alias</t>
   </si>
@@ -70,186 +70,18 @@
     <t>ASSEMBLY</t>
   </si>
   <si>
-    <t>for (REFERENCE_ALIGNMENT ,SEQUENCE_ANNOTATION)</t>
-  </si>
-  <si>
     <t>filetype</t>
   </si>
   <si>
     <t>https://ena-docs.readthedocs.io/en/latest/submit/analyses.html#analysis-file-groups</t>
   </si>
   <si>
-    <t># pro</t>
-  </si>
-  <si>
-    <t>por1</t>
-  </si>
-  <si>
-    <t>por2</t>
-  </si>
-  <si>
-    <t>por3</t>
-  </si>
-  <si>
-    <t>por4</t>
-  </si>
-  <si>
-    <t>por5</t>
-  </si>
-  <si>
-    <t>studu1</t>
-  </si>
-  <si>
-    <t>studu2</t>
-  </si>
-  <si>
-    <t>studu3</t>
-  </si>
-  <si>
-    <t>studu4</t>
-  </si>
-  <si>
-    <t>studu5</t>
-  </si>
-  <si>
-    <t>run1</t>
-  </si>
-  <si>
-    <t>run2</t>
-  </si>
-  <si>
-    <t>run3</t>
-  </si>
-  <si>
-    <t>run4</t>
-  </si>
-  <si>
-    <t>run5</t>
-  </si>
-  <si>
-    <t>alias1</t>
-  </si>
-  <si>
-    <t>alias2</t>
-  </si>
-  <si>
-    <t>alias3</t>
-  </si>
-  <si>
     <t>alias4</t>
   </si>
   <si>
     <t>alias5</t>
   </si>
   <si>
-    <t>title1</t>
-  </si>
-  <si>
-    <t>title2</t>
-  </si>
-  <si>
-    <t>title3</t>
-  </si>
-  <si>
-    <t>title4</t>
-  </si>
-  <si>
-    <t>title5</t>
-  </si>
-  <si>
-    <t>description1</t>
-  </si>
-  <si>
-    <t>description2</t>
-  </si>
-  <si>
-    <t>description3</t>
-  </si>
-  <si>
-    <t>description4</t>
-  </si>
-  <si>
-    <t>description5</t>
-  </si>
-  <si>
-    <t>type1</t>
-  </si>
-  <si>
-    <t>type2</t>
-  </si>
-  <si>
-    <t>type3</t>
-  </si>
-  <si>
-    <t>type4</t>
-  </si>
-  <si>
-    <t>type5</t>
-  </si>
-  <si>
-    <t>program1</t>
-  </si>
-  <si>
-    <t>program2</t>
-  </si>
-  <si>
-    <t>program3</t>
-  </si>
-  <si>
-    <t>program4</t>
-  </si>
-  <si>
-    <t>program5</t>
-  </si>
-  <si>
-    <t>platform1</t>
-  </si>
-  <si>
-    <t>platform2</t>
-  </si>
-  <si>
-    <t>platform3</t>
-  </si>
-  <si>
-    <t>platform4</t>
-  </si>
-  <si>
-    <t>platform5</t>
-  </si>
-  <si>
-    <t>assebly1</t>
-  </si>
-  <si>
-    <t>assebly2</t>
-  </si>
-  <si>
-    <t>assebly3</t>
-  </si>
-  <si>
-    <t>assebly4</t>
-  </si>
-  <si>
-    <t>assebly5</t>
-  </si>
-  <si>
-    <t>sequence1</t>
-  </si>
-  <si>
-    <t>sequence2</t>
-  </si>
-  <si>
-    <t>sequence3</t>
-  </si>
-  <si>
-    <t>sequence4</t>
-  </si>
-  <si>
-    <t>sequence5</t>
-  </si>
-  <si>
-    <t>antibiogram_template.txt</t>
-  </si>
-  <si>
     <t>STUDY_REF</t>
   </si>
   <si>
@@ -595,12 +427,6 @@
     <t>reverse_file_name</t>
   </si>
   <si>
-    <t>PRJEB72880</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2 sample 7 reads</t>
-  </si>
-  <si>
     <t>ILLUMINA</t>
   </si>
   <si>
@@ -625,30 +451,9 @@
     <t>Amplicons were cleaned-up with AMPure XP beads (Beckman Coulter) with a 1:1 ratio and amplicon concentrations were quantified with the Qubit Fluorometric Quantitation system (Life Technologies)</t>
   </si>
   <si>
-    <t>SARS-CoV-2 sample 8 reads</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2 sample 9 reads</t>
-  </si>
-  <si>
     <t xml:space="preserve"># </t>
   </si>
   <si>
-    <t>SARS-CoV-2-Sample1_1.fastq.gz</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2-Sample2_1.fastq.gz</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2-Sample3_1.fastq.gz</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2-Sample1_2.fastq.gz</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2-Sample2_2.fastq.gz</t>
-  </si>
-  <si>
     <t>STUDY</t>
   </si>
   <si>
@@ -685,15 +490,6 @@
     <t>UNLOCALISED_LIST</t>
   </si>
   <si>
-    <t>ERS18379758</t>
-  </si>
-  <si>
-    <t>ERR12717068</t>
-  </si>
-  <si>
-    <t>hCoV-19_isolate_1</t>
-  </si>
-  <si>
     <t>COVID-19 outbreak</t>
   </si>
   <si>
@@ -712,30 +508,12 @@
     <t>hCoV-19_isolate_1_chrm_list.txt.gz</t>
   </si>
   <si>
-    <t>ERS18379757</t>
-  </si>
-  <si>
-    <t>ERR12717066</t>
-  </si>
-  <si>
-    <t>hCoV-19_isolate_2</t>
-  </si>
-  <si>
     <t>hCoV-19_isolate_2.fasta.gz</t>
   </si>
   <si>
     <t>hCoV-19_isolate_2_chrm_list.txt.gz</t>
   </si>
   <si>
-    <t>ERS18379756</t>
-  </si>
-  <si>
-    <t>ERR12717065</t>
-  </si>
-  <si>
-    <t>hCoV-19_isolate_3</t>
-  </si>
-  <si>
     <t>hCoV-19_isolate_3.fasta.gz</t>
   </si>
   <si>
@@ -763,19 +541,112 @@
     <t xml:space="preserve"> name of a spreadsheet containing sequences</t>
   </si>
   <si>
-    <t>todo1</t>
-  </si>
-  <si>
-    <t>your decription</t>
-  </si>
-  <si>
     <t>filename1.tsv.gz</t>
   </si>
   <si>
-    <t>todo2</t>
-  </si>
-  <si>
-    <t>filename2.embl.gz</t>
+    <t>alias6</t>
+  </si>
+  <si>
+    <t>PRJEB73581</t>
+  </si>
+  <si>
+    <t>ERS28185051</t>
+  </si>
+  <si>
+    <t>ERS28185050</t>
+  </si>
+  <si>
+    <t>ERS28185049</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2-Sample_1_1.fastq.gz</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2-Sample_2_1.fastq.gz</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2-Sample_3_1.fastq.gz</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2-Sample_1_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2-Sample_2_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2-Sample_3_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>run_1</t>
+  </si>
+  <si>
+    <t>run_2</t>
+  </si>
+  <si>
+    <t>run_3</t>
+  </si>
+  <si>
+    <t>ERR12723397</t>
+  </si>
+  <si>
+    <t>ERR12723396</t>
+  </si>
+  <si>
+    <t>ERR12723395</t>
+  </si>
+  <si>
+    <t>ASSEMBLYNAME_1</t>
+  </si>
+  <si>
+    <t>ASSEMBLYNAME_2</t>
+  </si>
+  <si>
+    <t>ASSEMBLYNAME_3</t>
+  </si>
+  <si>
+    <t>other1</t>
+  </si>
+  <si>
+    <t>This is a title</t>
+  </si>
+  <si>
+    <t>This is a description test</t>
+  </si>
+  <si>
+    <t># help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique </t>
+  </si>
+  <si>
+    <t>other2</t>
+  </si>
+  <si>
+    <t>antibiogram_template_1.txt</t>
+  </si>
+  <si>
+    <t>antibiogram_template_2.txt</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>name_1</t>
+  </si>
+  <si>
+    <t>name_2</t>
+  </si>
+  <si>
+    <t>This is a decription test _ 1</t>
+  </si>
+  <si>
+    <t>This is a decription test _ 2</t>
+  </si>
+  <si>
+    <t>KE13BUS8.final.embl.gz</t>
+  </si>
+  <si>
+    <t>#PRJEB72880</t>
   </si>
 </sst>
 </file>
@@ -783,9 +654,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,34 +665,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="6"/>
+      <sz val="12"/>
       <color rgb="FF062873"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF4070A0"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -829,21 +747,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF1F1F1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -857,6 +798,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1179,7 +1124,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1200,112 +1145,112 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
         <v>46065</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
         <v>46066</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3">
+        <v>167</v>
+      </c>
+      <c r="B5" s="1">
         <v>46067</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1326,7 +1271,7 @@
     <col min="3" max="3" width="39.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.90625" bestFit="1" customWidth="1"/>
@@ -1342,7 +1287,7 @@
     <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.6328125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="37" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
@@ -1356,197 +1301,197 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>107</v>
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="T2" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="U2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>123</v>
+        <v>66</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="W2" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="X2" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="Y2" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>134</v>
+        <v>78</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s">
-        <v>134</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>134</v>
+        <v>78</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="W3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
@@ -1554,22 +1499,22 @@
         <v>2697049</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="3">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1">
         <v>44094</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="H4">
         <v>46.818199999999997</v>
@@ -1578,16 +1523,16 @@
         <v>8.2274999999999991</v>
       </c>
       <c r="J4" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1596,43 +1541,43 @@
         <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="T4" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="U4" t="s">
-        <v>150</v>
-      </c>
-      <c r="V4" s="3">
+        <v>94</v>
+      </c>
+      <c r="V4" s="1">
         <v>44096</v>
       </c>
       <c r="W4">
         <v>80</v>
       </c>
       <c r="Y4" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="Z4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="AA4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="AB4" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="AD4" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="AE4">
         <v>1150</v>
@@ -1643,22 +1588,22 @@
         <v>2697049</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="3">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1">
         <v>44094</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="H5">
         <v>46.818199999999997</v>
@@ -1667,16 +1612,16 @@
         <v>8.2274999999999991</v>
       </c>
       <c r="J5" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1685,43 +1630,43 @@
         <v>20</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="Q5" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="R5" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="T5" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="U5" t="s">
-        <v>150</v>
-      </c>
-      <c r="V5" s="3">
+        <v>94</v>
+      </c>
+      <c r="V5" s="1">
         <v>44096</v>
       </c>
       <c r="W5">
         <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="Z5" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="AA5" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="AB5" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="AD5" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="AE5">
         <v>1150</v>
@@ -1732,22 +1677,22 @@
         <v>2697049</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="3">
+        <v>107</v>
+      </c>
+      <c r="F6" s="1">
         <v>44094</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="H6">
         <v>46.818199999999997</v>
@@ -1756,16 +1701,16 @@
         <v>8.2274999999999991</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -1774,50 +1719,50 @@
         <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="Q6" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="R6" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="T6" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="U6" t="s">
-        <v>150</v>
-      </c>
-      <c r="V6" s="3">
+        <v>94</v>
+      </c>
+      <c r="V6" s="1">
         <v>44096</v>
       </c>
       <c r="W6">
         <v>80</v>
       </c>
       <c r="Y6" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="AA6" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="AB6" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="AD6" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="AE6">
         <v>1150</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1828,7 +1773,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1850,197 +1795,198 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="L2" t="s">
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="N2" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" t="s">
-        <v>184</v>
+      <c r="A4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="F4">
         <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="N4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" t="s">
-        <v>184</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="F5">
         <v>350</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="L5" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="M5" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="N5" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="F6">
         <v>350</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="K6" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="L6" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="M6" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="N6" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2049,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F4B9B1-CDA0-4336-8F40-640A4DBAF164}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2075,22 +2021,22 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2099,159 +2045,160 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="M1" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="N1" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="O1" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="P1" t="s">
-        <v>213</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
         <v>184</v>
       </c>
-      <c r="B3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" t="s">
-        <v>216</v>
-      </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="O3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" t="s">
-        <v>224</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="K4" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="L4" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="O4" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" t="s">
-        <v>229</v>
+      <c r="A5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="K5" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="L5" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="O5" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2260,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB258330-233A-4717-A4F6-3DF2390B1E0D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2275,67 +2222,68 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>184</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2345,267 +2293,142 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6328125" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
+    </row>
+    <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C10" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="2">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" location="analysis-file-groups" xr:uid="{E413CE92-FB94-4B41-A7C0-04F432C565A8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>